--- a/外链/json compare/jsoncompare.org/jsoncompare.org-referringdomains-subdomains-live-05-Feb-2021.xlsx
+++ b/外链/json compare/jsoncompare.org/jsoncompare.org-referringdomains-subdomains-live-05-Feb-2021.xlsx
@@ -342,11 +342,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +357,52 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -371,21 +417,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,23 +431,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,22 +456,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,27 +476,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -492,21 +493,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,19 +508,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="2" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,25 +550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,31 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,49 +580,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,13 +610,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,13 +670,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,6 +711,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -726,24 +779,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,17 +793,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,191 +811,191 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1319,3581 +1348,3588 @@
   <sheetPr/>
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="A1:L94"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1">
+    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>95</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>32</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>0.33</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>4</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="4">
         <v>0.76</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="6">
         <v>44177.4592708333</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="7">
         <v>1302061</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="7">
         <v>13203</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>28454865</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
+    <row r="3" s="1" customFormat="1" spans="1:12">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>90</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>782</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>0.17</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
         <v>43977.2519328704</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="7">
         <v>177746</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="7">
         <v>199669</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>33670101</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
+    <row r="4" s="1" customFormat="1" spans="1:12">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>90</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>979</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>0.08</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
         <v>43667.5893518518</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="7">
         <v>107662</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="7">
         <v>82869</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>17642036</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
+    <row r="5" s="1" customFormat="1" spans="1:12">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>85</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>3795</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>0.17</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
         <v>44076.8636921296</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="7">
         <v>41549</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="7">
         <v>24012</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>10495608</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1">
+    <row r="6" s="1" customFormat="1" spans="1:12">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>80</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>11475</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>4</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>0.33</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>4</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="4">
         <v>0.76</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="6">
         <v>44213.7144328704</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="7">
         <v>18416</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="7">
         <v>1526</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>18368</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1">
+    <row r="7" s="1" customFormat="1" spans="1:12">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>73</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>48994</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>24</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
         <v>44124.2924189815</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="7">
         <v>7780</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>333</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>55858</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1">
+    <row r="8" s="1" customFormat="1" spans="1:12">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>71</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>69811</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>0.08</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>1</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="4">
         <v>0.19</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="6">
         <v>43648.3301041667</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="7">
         <v>15861</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="7">
         <v>128288</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>201084</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
+    <row r="9" s="2" customFormat="1" spans="1:12">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>67</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <v>128373</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="5">
         <v>8</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="5">
         <v>0.66</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="5">
         <v>8</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="5">
         <v>2</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="8">
         <v>43891.0433680556</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="9">
         <v>6576</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="9">
         <v>28392</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="5">
         <v>1355</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1">
+    <row r="10" s="1" customFormat="1" spans="1:12">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>63</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>181590</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>0.08</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
         <v>43985.8193055556</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="7">
         <v>2576</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>185</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>554</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1">
+    <row r="11" s="1" customFormat="1" spans="1:12">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>62</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>195678</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>0.08</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>1</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="4">
         <v>0.19</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="6">
         <v>44228.6181365741</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="7">
         <v>1964</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="7">
         <v>485952</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>1803621</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1">
+    <row r="12" s="1" customFormat="1" spans="1:12">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>62</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>203100</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>0.08</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="4">
         <v>0.19</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="6">
         <v>43590.3363310185</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="7">
         <v>2120</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="7">
         <v>25176</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>816</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1">
+    <row r="13" s="1" customFormat="1" spans="1:12">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>60</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>233076</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>8</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>0.66</v>
       </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
         <v>43499.4855439815</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="7">
         <v>6105</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="7">
         <v>3345</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>148384</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1">
+    <row r="14" s="1" customFormat="1" spans="1:12">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>52</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>482445</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>3</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>0.25</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
         <v>44025.4694560185</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>251</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>20</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>52</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>502141</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>26</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <v>2</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
         <v>44211.6958796296</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="11">
         <v>3736</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="3">
         <v>62</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="3">
         <v>393494</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>52</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>504144</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>4</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <v>0.33</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
         <v>44047.6037384259</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="11">
         <v>13011</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="11">
         <v>1229</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="3">
         <v>60660</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>51</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>539939</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>43</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="3">
         <v>4</v>
       </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
         <v>44009.4250925926</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="11">
         <v>1201</v>
       </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>870</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>50</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>608905</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <v>7</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="3">
         <v>0.58</v>
       </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
         <v>44001.8142939815</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="11">
         <v>1070</v>
       </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>1642</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>49</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <v>664544</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>4</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="3">
         <v>0.33</v>
       </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
         <v>43475.9912847222</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="3">
         <v>234</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="3">
         <v>104</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="3">
         <v>20660</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1">
+    <row r="20" s="1" customFormat="1" spans="1:12">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>49</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>717594</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>490</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>41</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="4">
         <v>490</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="4">
         <v>93</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="6">
         <v>43911.7910185185</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>64</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>29</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>32746</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>46</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <v>890202</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <v>2</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="3">
         <v>0.17</v>
       </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
         <v>44213.0489930556</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="11">
         <v>1319</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="3">
         <v>18</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="3">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1">
+    <row r="22" s="1" customFormat="1" spans="1:12">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>44</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>988470</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>132</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>11</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
         <v>44180.2442476852</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="7">
         <v>11867</v>
       </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
         <v>6550</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>43</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <v>1106618</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>2</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="3">
         <v>0.17</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10">
         <v>44227.657337963</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="11">
         <v>11238</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="3">
         <v>24</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="3">
         <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>42</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="3">
         <v>1198291</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="3">
         <v>0.08</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="3">
         <v>1</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="3">
         <v>0.19</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="10">
         <v>44220.7196527778</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="3">
         <v>226</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="3">
         <v>70</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="3">
         <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <v>36</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="3">
         <v>2199569</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="3">
         <v>3</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="3">
         <v>0.25</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="3">
         <v>3</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="3">
         <v>0.57</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="10">
         <v>43601.4711111111</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="3">
         <v>15</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="3">
         <v>11</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="3">
         <v>0.44</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <v>35</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="3">
         <v>2205432</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="3">
         <v>1</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="3">
         <v>0.08</v>
       </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10">
         <v>44214.1176273148</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="11">
         <v>1437</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="3">
         <v>22</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="3">
         <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <v>35</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="3">
         <v>2418582</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
         <v>2</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="3">
         <v>0.17</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
         <v>44215.9762962963</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="11">
         <v>1064</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="3">
         <v>25</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="3">
         <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <v>33</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="3">
         <v>2726801</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="3">
         <v>1</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="3">
         <v>0.08</v>
       </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10">
         <v>44215.1433217593</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="3">
         <v>727</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="3">
         <v>22</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="3">
         <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <v>33</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="3">
         <v>2837964</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="3">
         <v>7</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="3">
         <v>0.58</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="3">
         <v>7</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="3">
         <v>1</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="10">
         <v>43938.901875</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="3">
         <v>138</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="11">
         <v>28768</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="3">
         <v>437</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <v>33</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="3">
         <v>2878764</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="3">
         <v>3</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="3">
         <v>0.25</v>
       </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10">
         <v>44195.3443287037</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="11">
         <v>1074</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="3">
         <v>20</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="3">
         <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>33</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="3">
         <v>2918254</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="3">
         <v>2</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="3">
         <v>0.17</v>
       </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
         <v>44061.4458333333</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="3">
         <v>384</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="3">
         <v>3</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <v>32</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="3">
         <v>3161452</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="3">
         <v>4</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="3">
         <v>0.33</v>
       </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
         <v>43976.1820138889</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="3">
         <v>286</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="3">
         <v>39</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="3">
         <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <v>31</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="3">
         <v>3493440</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="3">
         <v>3</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="3">
         <v>0.25</v>
       </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10">
         <v>44025.3000810185</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="3">
         <v>77</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="3">
         <v>5</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <v>31</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="3">
         <v>3594117</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="3">
         <v>2</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="3">
         <v>0.17</v>
       </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10">
         <v>44115.0042013889</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="3">
         <v>407</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="3">
         <v>4</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34" s="3">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <v>29</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="3">
         <v>4051541</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="3">
         <v>14</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="3">
         <v>1</v>
       </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2">
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10">
         <v>44051.8664814815</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="11">
         <v>1436</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="3">
         <v>25</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35" s="3">
         <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <v>29</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="3">
         <v>4272039</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="3">
         <v>2</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="3">
         <v>0.17</v>
       </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10">
         <v>44220.894849537</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="11">
         <v>1041</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="3">
         <v>18</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36" s="3">
         <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="3">
         <v>29</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="3">
         <v>4303117</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="3">
         <v>1</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="3">
         <v>0.08</v>
       </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="10">
         <v>44213.075625</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="11">
         <v>1103</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="3">
         <v>21</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37" s="3">
         <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
         <v>28</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="3">
         <v>4751289</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="3">
         <v>9</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="3">
         <v>0.74</v>
       </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
         <v>44215.1641782407</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="3">
         <v>676</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="3">
         <v>23</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="3">
         <v>1517</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="3">
         <v>28</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="3">
         <v>4802147</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="3">
         <v>1</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="3">
         <v>0.08</v>
       </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2">
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
         <v>44228.1763194444</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="11">
         <v>1166</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="3">
         <v>17</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39" s="3">
         <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="3">
         <v>27</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="3">
         <v>4958647</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="3">
         <v>7</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="3">
         <v>0.58</v>
       </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2">
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="10">
         <v>44037.3143518519</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="3">
         <v>659</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="3">
         <v>14</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40" s="3">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="3">
         <v>27</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="3">
         <v>5151801</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="3">
         <v>14</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="3">
         <v>1</v>
       </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2">
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10">
         <v>44210.5139583333</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="3">
         <v>997</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="3">
         <v>21</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="3">
         <v>722</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="3">
         <v>26</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="3">
         <v>5470912</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="3">
         <v>4</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="3">
         <v>0.33</v>
       </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10">
         <v>44083.6270833333</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="11">
         <v>1047</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="3">
         <v>15</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="1">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="3">
         <v>26</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="3">
         <v>5489881</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="3">
         <v>1</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="3">
         <v>0.08</v>
       </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="10">
         <v>44230.2442361111</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="3">
         <v>260</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43" s="3">
         <v>5</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43" s="3">
         <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="1">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="3">
         <v>26</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="3">
         <v>5975441</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="3">
         <v>9</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="3">
         <v>0.74</v>
       </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="10">
         <v>44081.3189814815</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="11">
         <v>1086</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="3">
         <v>22</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44" s="3">
         <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="3">
         <v>25</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="3">
         <v>6141565</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="3">
         <v>5</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="3">
         <v>0.41</v>
       </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10">
         <v>44090.7455902778</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="3">
         <v>999</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="3">
         <v>33</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45" s="3">
         <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="1">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="3">
         <v>25</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="3">
         <v>6172059</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="3">
         <v>1</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="3">
         <v>0.08</v>
       </c>
-      <c r="G46" s="1">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2">
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="10">
         <v>44228.2673148148</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="3">
         <v>604</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="3">
         <v>17</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="1">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="3">
         <v>25</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="3">
         <v>6348655</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="3">
         <v>5</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="3">
         <v>0.41</v>
       </c>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
-      <c r="I47" s="2">
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="10">
         <v>44212.6305787037</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="3">
         <v>359</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="3">
         <v>5</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47" s="3">
         <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="1">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="3">
         <v>23</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="3">
         <v>7377041</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="3">
         <v>21</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="3">
         <v>2</v>
       </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
-      <c r="I48" s="2">
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="10">
         <v>44067.7858680556</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="3">
         <v>938</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" s="3">
         <v>19</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48" s="3">
         <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="1">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="3">
         <v>23</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="3">
         <v>7472011</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="3">
         <v>2</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="3">
         <v>0.17</v>
       </c>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2">
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="10">
         <v>44103.7618402778</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="3">
         <v>459</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="3">
         <v>9</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L49" s="3">
         <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="1">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="3">
         <v>22</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="3">
         <v>7476086</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="3">
         <v>7</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="3">
         <v>0.58</v>
       </c>
-      <c r="G50" s="1">
-        <v>0</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0</v>
-      </c>
-      <c r="I50" s="2">
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="10">
         <v>44216.8316435185</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="11">
         <v>1213</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="3">
         <v>16</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L50" s="3">
         <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="1">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="3">
         <v>22</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="3">
         <v>7484684</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="3">
         <v>2</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="3">
         <v>0.17</v>
       </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2">
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51" s="10">
         <v>44212.9181828704</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="11">
         <v>1025</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="3">
         <v>17</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L51" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="1">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="3">
         <v>21</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="3">
         <v>8021905</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="3">
         <v>2</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="3">
         <v>0.17</v>
       </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0</v>
-      </c>
-      <c r="I52" s="2">
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="10">
         <v>44077.7651736111</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="3">
         <v>505</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="3">
         <v>17</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52" s="3">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="1">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="3">
         <v>20</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="3">
         <v>8598859</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="3">
         <v>22</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="3">
         <v>2</v>
       </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2">
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
+      <c r="I53" s="10">
         <v>44016.0397106481</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53" s="3">
         <v>700</v>
       </c>
-      <c r="K53" s="1">
-        <v>0</v>
-      </c>
-      <c r="L53" s="1">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
         <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="1">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="3">
         <v>20</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="3">
         <v>8750829</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="3">
         <v>8</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="3">
         <v>0.66</v>
       </c>
-      <c r="G54" s="1">
-        <v>0</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2">
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="10">
         <v>44219.1153125</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54" s="3">
         <v>695</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54" s="3">
         <v>19</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L54" s="3">
         <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="1">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="3">
         <v>20</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="3">
         <v>8794134</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="3">
         <v>4</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="3">
         <v>0.33</v>
       </c>
-      <c r="G55" s="1">
-        <v>0</v>
-      </c>
-      <c r="H55" s="1">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2">
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55" s="10">
         <v>44215.4122916667</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55" s="3">
         <v>860</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55" s="3">
         <v>13</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L55" s="3">
         <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="1">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="3">
         <v>20</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="3">
         <v>8839824</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="3">
         <v>1</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="3">
         <v>0.08</v>
       </c>
-      <c r="G56" s="1">
-        <v>0</v>
-      </c>
-      <c r="H56" s="1">
-        <v>0</v>
-      </c>
-      <c r="I56" s="2">
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+      <c r="I56" s="10">
         <v>44223.9164236111</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56" s="3">
         <v>336</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56" s="3">
         <v>6</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L56" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="1">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="3">
         <v>19</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="3">
         <v>9238914</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="3">
         <v>2</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="3">
         <v>0.17</v>
       </c>
-      <c r="G57" s="1">
-        <v>0</v>
-      </c>
-      <c r="H57" s="1">
-        <v>0</v>
-      </c>
-      <c r="I57" s="2">
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="10">
         <v>44220.4035300926</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57" s="3">
         <v>735</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K57" s="3">
         <v>17</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="1">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="3">
         <v>18</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="3">
         <v>9658019</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="3">
         <v>3</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="3">
         <v>0.25</v>
       </c>
-      <c r="G58" s="1">
-        <v>0</v>
-      </c>
-      <c r="H58" s="1">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2">
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="10">
         <v>44198.3152662037</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58" s="3">
         <v>228</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58" s="3">
         <v>10</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L58" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="1">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="3">
         <v>18</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="3">
         <v>10017711</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="3">
         <v>2</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="3">
         <v>0.17</v>
       </c>
-      <c r="G59" s="1">
-        <v>0</v>
-      </c>
-      <c r="H59" s="1">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2">
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="10">
         <v>44211.948287037</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59" s="3">
         <v>392</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K59" s="3">
         <v>6</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L59" s="3">
         <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="1">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="3">
         <v>17</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="3">
         <v>10198104</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="3">
         <v>2</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="3">
         <v>0.17</v>
       </c>
-      <c r="G60" s="1">
-        <v>0</v>
-      </c>
-      <c r="H60" s="1">
-        <v>0</v>
-      </c>
-      <c r="I60" s="2">
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="10">
         <v>44216.4422916667</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J60" s="3">
         <v>604</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K60" s="3">
         <v>18</v>
       </c>
-      <c r="L60" s="1">
+      <c r="L60" s="3">
         <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="1">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="3">
         <v>16</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="3">
         <v>11091625</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="3">
         <v>2</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="3">
         <v>0.17</v>
       </c>
-      <c r="G61" s="1">
-        <v>0</v>
-      </c>
-      <c r="H61" s="1">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2">
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="10">
         <v>44224.7522916667</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61" s="3">
         <v>282</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K61" s="3">
         <v>46</v>
       </c>
-      <c r="L61" s="1">
+      <c r="L61" s="3">
         <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="1">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="3">
         <v>16</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="3">
         <v>11946508</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="3">
         <v>1</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="3">
         <v>0.08</v>
       </c>
-      <c r="G62" s="1">
-        <v>0</v>
-      </c>
-      <c r="H62" s="1">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2">
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="10">
         <v>44189.6247337963</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62" s="3">
         <v>558</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K62" s="3">
         <v>10</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L62" s="3">
         <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="1">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="3">
         <v>14</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="3">
         <v>12950242</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="3">
         <v>1</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="3">
         <v>0.08</v>
       </c>
-      <c r="G63" s="1">
-        <v>0</v>
-      </c>
-      <c r="H63" s="1">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2">
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0</v>
+      </c>
+      <c r="I63" s="10">
         <v>44027.5728125</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63" s="3">
         <v>38</v>
       </c>
-      <c r="K63" s="1">
+      <c r="K63" s="3">
         <v>4</v>
       </c>
-      <c r="L63" s="1">
+      <c r="L63" s="3">
         <v>0.08</v>
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="1">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="3">
         <v>14</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="3">
         <v>13514614</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="3">
         <v>1</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="3">
         <v>0.08</v>
       </c>
-      <c r="G64" s="1">
-        <v>0</v>
-      </c>
-      <c r="H64" s="1">
-        <v>0</v>
-      </c>
-      <c r="I64" s="2">
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0</v>
+      </c>
+      <c r="I64" s="10">
         <v>44027.657662037</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64" s="3">
         <v>30</v>
       </c>
-      <c r="K64" s="1">
+      <c r="K64" s="3">
         <v>4</v>
       </c>
-      <c r="L64" s="1">
+      <c r="L64" s="3">
         <v>0.06</v>
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="1">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="3">
         <v>13</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="3">
         <v>13719438</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="3">
         <v>1</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="3">
         <v>0.08</v>
       </c>
-      <c r="G65" s="1">
-        <v>0</v>
-      </c>
-      <c r="H65" s="1">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2">
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0</v>
+      </c>
+      <c r="I65" s="10">
         <v>44026.8266203704</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65" s="3">
         <v>27</v>
       </c>
-      <c r="K65" s="1">
+      <c r="K65" s="3">
         <v>5</v>
       </c>
-      <c r="L65" s="1">
+      <c r="L65" s="3">
         <v>0.03</v>
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="1">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="3">
         <v>13</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="3">
         <v>13726001</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="3">
         <v>2</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="3">
         <v>0.17</v>
       </c>
-      <c r="G66" s="1">
-        <v>0</v>
-      </c>
-      <c r="H66" s="1">
-        <v>0</v>
-      </c>
-      <c r="I66" s="2">
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="10">
         <v>44027.5057291667</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66" s="3">
         <v>30</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K66" s="3">
         <v>4</v>
       </c>
-      <c r="L66" s="1">
+      <c r="L66" s="3">
         <v>1.2</v>
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="1">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="3">
         <v>13</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="3">
         <v>13730003</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="3">
         <v>1</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="3">
         <v>0.08</v>
       </c>
-      <c r="G67" s="1">
-        <v>0</v>
-      </c>
-      <c r="H67" s="1">
-        <v>0</v>
-      </c>
-      <c r="I67" s="2">
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0</v>
+      </c>
+      <c r="I67" s="10">
         <v>44028.1918171296</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J67" s="3">
         <v>31</v>
       </c>
-      <c r="K67" s="1">
+      <c r="K67" s="3">
         <v>5</v>
       </c>
-      <c r="L67" s="1">
+      <c r="L67" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="1">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="3">
         <v>13</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="3">
         <v>13926816</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="3">
         <v>2</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="3">
         <v>0.17</v>
       </c>
-      <c r="G68" s="1">
-        <v>0</v>
-      </c>
-      <c r="H68" s="1">
-        <v>0</v>
-      </c>
-      <c r="I68" s="2">
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0</v>
+      </c>
+      <c r="I68" s="10">
         <v>44028.8316782407</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68" s="3">
         <v>17</v>
       </c>
-      <c r="K68" s="1">
+      <c r="K68" s="3">
         <v>6</v>
       </c>
-      <c r="L68" s="1">
+      <c r="L68" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="1">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="3">
         <v>13</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="3">
         <v>13995325</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="3">
         <v>2</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="3">
         <v>0.17</v>
       </c>
-      <c r="G69" s="1">
-        <v>0</v>
-      </c>
-      <c r="H69" s="1">
-        <v>0</v>
-      </c>
-      <c r="I69" s="2">
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+      <c r="H69" s="3">
+        <v>0</v>
+      </c>
+      <c r="I69" s="10">
         <v>44028.2224884259</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69" s="3">
         <v>19</v>
       </c>
-      <c r="K69" s="1">
+      <c r="K69" s="3">
         <v>4</v>
       </c>
-      <c r="L69" s="1">
+      <c r="L69" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="1">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="3">
         <v>13</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="3">
         <v>14344932</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="3">
         <v>1</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="3">
         <v>0.08</v>
       </c>
-      <c r="G70" s="1">
-        <v>0</v>
-      </c>
-      <c r="H70" s="1">
-        <v>0</v>
-      </c>
-      <c r="I70" s="2">
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="10">
         <v>44025.0082986111</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70" s="3">
         <v>30</v>
       </c>
-      <c r="K70" s="1">
+      <c r="K70" s="3">
         <v>5</v>
       </c>
-      <c r="L70" s="1">
+      <c r="L70" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="1">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="3">
         <v>12</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="3">
         <v>15032280</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="3">
         <v>1</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="3">
         <v>0.08</v>
       </c>
-      <c r="G71" s="1">
-        <v>0</v>
-      </c>
-      <c r="H71" s="1">
-        <v>0</v>
-      </c>
-      <c r="I71" s="2">
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0</v>
+      </c>
+      <c r="I71" s="10">
         <v>44221.9652777778</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71" s="3">
         <v>450</v>
       </c>
-      <c r="K71" s="1">
+      <c r="K71" s="3">
         <v>22</v>
       </c>
-      <c r="L71" s="1">
+      <c r="L71" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="1">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="3">
         <v>11</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="3">
         <v>16349547</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="3">
         <v>1</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="3">
         <v>0.08</v>
       </c>
-      <c r="G72" s="1">
-        <v>0</v>
-      </c>
-      <c r="H72" s="1">
-        <v>0</v>
-      </c>
-      <c r="I72" s="2">
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="10">
         <v>44215.7096064815</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J72" s="3">
         <v>414</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K72" s="3">
         <v>52</v>
       </c>
-      <c r="L72" s="1">
+      <c r="L72" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="1">
+    <row r="73" s="1" customFormat="1" spans="1:12">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="4">
         <v>9</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="4">
         <v>19725515</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="4">
         <v>194</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="4">
         <v>16</v>
       </c>
-      <c r="G73" s="1">
-        <v>0</v>
-      </c>
-      <c r="H73" s="1">
-        <v>0</v>
-      </c>
-      <c r="I73" s="2">
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+      <c r="I73" s="6">
         <v>44097.6759490741</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J73" s="4">
         <v>400</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K73" s="7">
         <v>118454</v>
       </c>
-      <c r="L73" s="1">
+      <c r="L73" s="4">
         <v>2209</v>
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="1">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="3">
         <v>6</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="3">
         <v>25017832</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="3">
         <v>1</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="3">
         <v>0.08</v>
       </c>
-      <c r="G74" s="1">
-        <v>0</v>
-      </c>
-      <c r="H74" s="1">
-        <v>0</v>
-      </c>
-      <c r="I74" s="2">
+      <c r="G74" s="3">
+        <v>0</v>
+      </c>
+      <c r="H74" s="3">
+        <v>0</v>
+      </c>
+      <c r="I74" s="10">
         <v>44210.8805324074</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J74" s="3">
         <v>78</v>
       </c>
-      <c r="K74" s="1">
+      <c r="K74" s="3">
         <v>3</v>
       </c>
-      <c r="L74" s="1">
+      <c r="L74" s="3">
         <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="1">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="3">
         <v>6</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="3">
         <v>25287142</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="3">
         <v>5</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="3">
         <v>0.41</v>
       </c>
-      <c r="G75" s="1">
-        <v>0</v>
-      </c>
-      <c r="H75" s="1">
-        <v>0</v>
-      </c>
-      <c r="I75" s="2">
+      <c r="G75" s="3">
+        <v>0</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0</v>
+      </c>
+      <c r="I75" s="10">
         <v>44213.9949074074</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J75" s="3">
         <v>165</v>
       </c>
-      <c r="K75" s="1">
+      <c r="K75" s="3">
         <v>59</v>
       </c>
-      <c r="L75" s="1">
+      <c r="L75" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="1">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="3">
         <v>5</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="3">
         <v>27680252</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="3">
         <v>3</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="3">
         <v>0.25</v>
       </c>
-      <c r="G76" s="1">
-        <v>0</v>
-      </c>
-      <c r="H76" s="1">
-        <v>0</v>
-      </c>
-      <c r="I76" s="2">
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="10">
         <v>44064.5071296296</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J76" s="3">
         <v>141</v>
       </c>
-      <c r="K76" s="1">
+      <c r="K76" s="3">
         <v>36</v>
       </c>
-      <c r="L76" s="1">
+      <c r="L76" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="1">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="3">
         <v>5</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="3">
         <v>27967295</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="3">
         <v>1</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="3">
         <v>0.08</v>
       </c>
-      <c r="G77" s="1">
-        <v>0</v>
-      </c>
-      <c r="H77" s="1">
-        <v>0</v>
-      </c>
-      <c r="I77" s="2">
+      <c r="G77" s="3">
+        <v>0</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0</v>
+      </c>
+      <c r="I77" s="10">
         <v>44216.0257291667</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J77" s="3">
         <v>336</v>
       </c>
-      <c r="K77" s="1">
+      <c r="K77" s="3">
         <v>36</v>
       </c>
-      <c r="L77" s="1">
+      <c r="L77" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="1">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="3">
         <v>5</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="3">
         <v>29189673</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="3">
         <v>2</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78" s="3">
         <v>0.17</v>
       </c>
-      <c r="G78" s="1">
-        <v>0</v>
-      </c>
-      <c r="H78" s="1">
-        <v>0</v>
-      </c>
-      <c r="I78" s="2">
+      <c r="G78" s="3">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0</v>
+      </c>
+      <c r="I78" s="10">
         <v>44070.6502199074</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J78" s="3">
         <v>156</v>
       </c>
-      <c r="K78" s="1">
+      <c r="K78" s="3">
         <v>3</v>
       </c>
-      <c r="L78" s="1">
+      <c r="L78" s="3">
         <v>4.6</v>
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="1">
+      <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="3">
         <v>4</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="3">
         <v>31920960</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" s="3">
         <v>4</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="3">
         <v>0.33</v>
       </c>
-      <c r="G79" s="1">
-        <v>0</v>
-      </c>
-      <c r="H79" s="1">
-        <v>0</v>
-      </c>
-      <c r="I79" s="2">
+      <c r="G79" s="3">
+        <v>0</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0</v>
+      </c>
+      <c r="I79" s="10">
         <v>43914.6926157407</v>
       </c>
-      <c r="J79" s="1">
+      <c r="J79" s="3">
         <v>245</v>
       </c>
-      <c r="K79" s="1">
+      <c r="K79" s="3">
         <v>43</v>
       </c>
-      <c r="L79" s="1">
+      <c r="L79" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="1">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="3">
         <v>3</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="3">
         <v>36446788</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80" s="3">
         <v>1</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="3">
         <v>0.08</v>
       </c>
-      <c r="G80" s="1">
-        <v>0</v>
-      </c>
-      <c r="H80" s="1">
-        <v>0</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="G80" s="3">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3">
+        <v>0</v>
+      </c>
+      <c r="I80" s="10">
         <v>44230.0091087963</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J80" s="3">
         <v>36</v>
       </c>
-      <c r="K80" s="1">
+      <c r="K80" s="3">
         <v>22</v>
       </c>
-      <c r="L80" s="1">
+      <c r="L80" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="1">
+      <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="3">
         <v>3</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="3">
         <v>37331534</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="3">
         <v>1</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="3">
         <v>0.08</v>
       </c>
-      <c r="G81" s="1">
-        <v>0</v>
-      </c>
-      <c r="H81" s="1">
-        <v>0</v>
-      </c>
-      <c r="I81" s="2">
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="10">
         <v>44230.6882638889</v>
       </c>
-      <c r="J81" s="1">
+      <c r="J81" s="3">
         <v>22</v>
       </c>
-      <c r="K81" s="1">
+      <c r="K81" s="3">
         <v>2</v>
       </c>
-      <c r="L81" s="1">
+      <c r="L81" s="3">
         <v>1139</v>
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="1">
+      <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="3">
         <v>3</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="3">
         <v>37789242</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="3">
         <v>2</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82" s="3">
         <v>0.17</v>
       </c>
-      <c r="G82" s="1">
-        <v>0</v>
-      </c>
-      <c r="H82" s="1">
-        <v>0</v>
-      </c>
-      <c r="I82" s="2">
+      <c r="G82" s="3">
+        <v>0</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0</v>
+      </c>
+      <c r="I82" s="10">
         <v>44028.3697685185</v>
       </c>
-      <c r="J82" s="1">
+      <c r="J82" s="3">
         <v>58</v>
       </c>
-      <c r="K82" s="1">
+      <c r="K82" s="3">
         <v>21</v>
       </c>
-      <c r="L82" s="1">
+      <c r="L82" s="3">
         <v>1.9</v>
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="1">
+      <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="3">
         <v>3</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="3">
         <v>39833822</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="3">
         <v>6</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="3">
         <v>0.5</v>
       </c>
-      <c r="G83" s="1">
-        <v>0</v>
-      </c>
-      <c r="H83" s="1">
-        <v>0</v>
-      </c>
-      <c r="I83" s="2">
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="10">
         <v>43888.1139583333</v>
       </c>
-      <c r="J83" s="1">
+      <c r="J83" s="3">
         <v>274</v>
       </c>
-      <c r="K83" s="1">
+      <c r="K83" s="3">
         <v>61</v>
       </c>
-      <c r="L83" s="1">
+      <c r="L83" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="1">
+      <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="3">
         <v>2</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="3">
         <v>41845362</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="3">
         <v>2</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84" s="3">
         <v>0.17</v>
       </c>
-      <c r="G84" s="1">
-        <v>0</v>
-      </c>
-      <c r="H84" s="1">
-        <v>0</v>
-      </c>
-      <c r="I84" s="2">
+      <c r="G84" s="3">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3">
+        <v>0</v>
+      </c>
+      <c r="I84" s="10">
         <v>44059.475625</v>
       </c>
-      <c r="J84" s="1">
+      <c r="J84" s="3">
         <v>24</v>
       </c>
-      <c r="K84" s="1">
+      <c r="K84" s="3">
         <v>6</v>
       </c>
-      <c r="L84" s="1">
+      <c r="L84" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="1">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="3">
         <v>2</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="3">
         <v>47643709</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="3">
         <v>2</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="3">
         <v>0.17</v>
       </c>
-      <c r="G85" s="1">
-        <v>0</v>
-      </c>
-      <c r="H85" s="1">
-        <v>0</v>
-      </c>
-      <c r="I85" s="2">
+      <c r="G85" s="3">
+        <v>0</v>
+      </c>
+      <c r="H85" s="3">
+        <v>0</v>
+      </c>
+      <c r="I85" s="10">
         <v>44027.3786921296</v>
       </c>
-      <c r="J85" s="1">
+      <c r="J85" s="3">
         <v>74</v>
       </c>
-      <c r="K85" s="1">
+      <c r="K85" s="3">
         <v>5</v>
       </c>
-      <c r="L85" s="1">
+      <c r="L85" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="1">
+      <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="3">
         <v>2</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="3">
         <v>47844295</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="3">
         <v>2</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="3">
         <v>0.17</v>
       </c>
-      <c r="G86" s="1">
-        <v>0</v>
-      </c>
-      <c r="H86" s="1">
-        <v>0</v>
-      </c>
-      <c r="I86" s="2">
+      <c r="G86" s="3">
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
+        <v>0</v>
+      </c>
+      <c r="I86" s="10">
         <v>44027.5011921296</v>
       </c>
-      <c r="J86" s="1">
+      <c r="J86" s="3">
         <v>30</v>
       </c>
-      <c r="K86" s="1">
+      <c r="K86" s="3">
         <v>6</v>
       </c>
-      <c r="L86" s="1">
+      <c r="L86" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="1">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="3">
         <v>2</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="3">
         <v>48155295</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="3">
         <v>2</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87" s="3">
         <v>0.17</v>
       </c>
-      <c r="G87" s="1">
-        <v>0</v>
-      </c>
-      <c r="H87" s="1">
-        <v>0</v>
-      </c>
-      <c r="I87" s="2">
+      <c r="G87" s="3">
+        <v>0</v>
+      </c>
+      <c r="H87" s="3">
+        <v>0</v>
+      </c>
+      <c r="I87" s="10">
         <v>44028.6305671296</v>
       </c>
-      <c r="J87" s="1">
+      <c r="J87" s="3">
         <v>36</v>
       </c>
-      <c r="K87" s="1">
+      <c r="K87" s="3">
         <v>6</v>
       </c>
-      <c r="L87" s="1">
+      <c r="L87" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="1">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="3">
         <v>1</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="3">
         <v>48673498</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88" s="3">
         <v>3</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88" s="3">
         <v>0.25</v>
       </c>
-      <c r="G88" s="1">
-        <v>0</v>
-      </c>
-      <c r="H88" s="1">
-        <v>0</v>
-      </c>
-      <c r="I88" s="2">
+      <c r="G88" s="3">
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0</v>
+      </c>
+      <c r="I88" s="10">
         <v>44027.3319675926</v>
       </c>
-      <c r="J88" s="1">
+      <c r="J88" s="3">
         <v>29</v>
       </c>
-      <c r="K88" s="1">
+      <c r="K88" s="3">
         <v>6</v>
       </c>
-      <c r="L88" s="1">
+      <c r="L88" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="1">
+      <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="3">
         <v>1</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="3">
         <v>51525048</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89" s="3">
         <v>2</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89" s="3">
         <v>0.17</v>
       </c>
-      <c r="G89" s="1">
-        <v>0</v>
-      </c>
-      <c r="H89" s="1">
-        <v>0</v>
-      </c>
-      <c r="I89" s="2">
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="10">
         <v>44027.1764814815</v>
       </c>
-      <c r="J89" s="1">
+      <c r="J89" s="3">
         <v>23</v>
       </c>
-      <c r="K89" s="1">
+      <c r="K89" s="3">
         <v>5</v>
       </c>
-      <c r="L89" s="1">
+      <c r="L89" s="3">
         <v>0.2</v>
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="1">
+      <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="3">
         <v>1</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="3">
         <v>53620395</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="3">
         <v>3</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90" s="3">
         <v>0.25</v>
       </c>
-      <c r="G90" s="1">
-        <v>0</v>
-      </c>
-      <c r="H90" s="1">
-        <v>0</v>
-      </c>
-      <c r="I90" s="2">
+      <c r="G90" s="3">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0</v>
+      </c>
+      <c r="I90" s="10">
         <v>44026.0868518519</v>
       </c>
-      <c r="J90" s="1">
+      <c r="J90" s="3">
         <v>66</v>
       </c>
-      <c r="K90" s="1">
+      <c r="K90" s="3">
         <v>16</v>
       </c>
-      <c r="L90" s="1">
+      <c r="L90" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="1">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C91" s="1">
-        <v>0</v>
-      </c>
-      <c r="D91" s="1">
+      <c r="C91" s="3">
+        <v>0</v>
+      </c>
+      <c r="D91" s="3">
         <v>78225940</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="3">
         <v>1</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91" s="3">
         <v>0.08</v>
       </c>
-      <c r="G91" s="1">
-        <v>0</v>
-      </c>
-      <c r="H91" s="1">
-        <v>0</v>
-      </c>
-      <c r="I91" s="2">
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="10">
         <v>44192.0523842593</v>
       </c>
-      <c r="J91" s="1">
+      <c r="J91" s="3">
         <v>9</v>
       </c>
-      <c r="K91" s="1">
+      <c r="K91" s="3">
         <v>376</v>
       </c>
-      <c r="L91" s="1">
+      <c r="L91" s="3">
         <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="1">
+      <c r="A92" s="3">
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C92" s="1">
-        <v>0</v>
-      </c>
-      <c r="D92" s="1">
+      <c r="C92" s="3">
+        <v>0</v>
+      </c>
+      <c r="D92" s="3">
         <v>80289567</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92" s="3">
         <v>4</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F92" s="3">
         <v>0.33</v>
       </c>
-      <c r="G92" s="1">
+      <c r="G92" s="3">
         <v>4</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H92" s="3">
         <v>0.76</v>
       </c>
-      <c r="I92" s="2">
+      <c r="I92" s="10">
         <v>44225.1852893519</v>
       </c>
-      <c r="J92" s="1">
+      <c r="J92" s="3">
         <v>5</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K92" s="11">
         <v>1973</v>
       </c>
-      <c r="L92" s="1">
+      <c r="L92" s="3">
         <v>1818</v>
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="1">
+      <c r="A93" s="3">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C93" s="1">
-        <v>0</v>
-      </c>
-      <c r="D93" s="1">
+      <c r="C93" s="3">
+        <v>0</v>
+      </c>
+      <c r="D93" s="3">
         <v>105467591</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="3">
         <v>1</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93" s="3">
         <v>0.08</v>
       </c>
-      <c r="G93" s="1">
-        <v>0</v>
-      </c>
-      <c r="H93" s="1">
-        <v>0</v>
-      </c>
-      <c r="I93" s="2">
+      <c r="G93" s="3">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
+        <v>0</v>
+      </c>
+      <c r="I93" s="10">
         <v>44088.2258217593</v>
       </c>
-      <c r="J93" s="1">
+      <c r="J93" s="3">
         <v>7</v>
       </c>
-      <c r="K93" s="1">
+      <c r="K93" s="3">
         <v>32</v>
       </c>
-      <c r="L93" s="1">
+      <c r="L93" s="3">
         <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="1">
+      <c r="A94" s="3">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C94" s="1">
-        <v>0</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="C94" s="3">
+        <v>0</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="3">
         <v>1</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94" s="3">
         <v>0.08</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G94" s="3">
         <v>1</v>
       </c>
-      <c r="H94" s="1">
+      <c r="H94" s="3">
         <v>0.19</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94" s="10">
         <v>43610.7630902778</v>
       </c>
-      <c r="J94" s="1">
-        <v>0</v>
-      </c>
-      <c r="K94" s="1">
-        <v>0</v>
-      </c>
-      <c r="L94" s="1">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>0</v>
       </c>
     </row>
